--- a/Parameter/tblGlobalVar.xlsx
+++ b/Parameter/tblGlobalVar.xlsx
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -483,7 +483,31 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>C:\\Users\\tanalan\\Documents\\Establish Table</t>
+          <t>C:\Users\tanalan\Documents\Establish Table</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Rpath</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>C:\Program Files\Microsoft\R Open\R-3.4.0\bin\x64</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Rdsn</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>PostgreSQL35W</t>
         </is>
       </c>
     </row>
